--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/OREGON_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/OREGON_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1290"/>
+  <dimension ref="A1:D1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C7">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C68">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C70">
@@ -1670,7 +1670,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C98">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C128">
@@ -2174,12 +2174,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C136">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C139">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C143">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C148">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C150">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C155">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C159">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C177">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C187">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C197">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C204">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C217">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C224">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C227">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C234">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C242">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C246">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C255">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C259">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C262">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C268">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C274">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C279">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C290">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C293">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C306">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C308">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C311">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C316">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C328">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C332">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C337">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C340">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C350">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C352">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C363">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C369">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C371">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C376">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C381">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C383">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C385">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C396">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C411">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C415">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C422">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C429">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C434">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C436">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C439">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C443">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C447">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C452">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C456">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C468">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C472">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C473">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C478">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C502">
@@ -6988,7 +6988,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C504">
@@ -7794,7 +7794,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C566">
@@ -8189,7 +8189,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C596">
@@ -8228,7 +8228,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C599">
@@ -8267,7 +8267,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C602">
@@ -8280,7 +8280,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C603">
@@ -8384,7 +8384,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C611">
@@ -8441,7 +8441,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C615">
@@ -8454,7 +8454,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C616">
@@ -8506,7 +8506,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C620">
@@ -8597,7 +8597,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C627">
@@ -8745,7 +8745,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C638">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C641">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C645">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C648">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C652">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C660">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C663">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C672">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C676">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C681">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C693">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C698">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C709">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C714">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C722">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C745">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C756">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C758">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C771">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C773">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C781">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C798">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C801">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C813">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C853">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C866">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C868">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C870">
@@ -11779,7 +11779,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C871">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C872">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C873">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C875">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C876">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C877">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C878">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C881">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C882">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C883">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C886">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C888">
@@ -12200,7 +12200,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C903">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C911">
@@ -12395,7 +12395,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C918">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C919">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C927">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C928">
@@ -12603,7 +12603,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C934">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C938">
@@ -12746,7 +12746,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C945">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C960">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C964">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C971">
@@ -13123,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C974">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C976">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C980">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C988">
@@ -13370,7 +13370,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C993">
@@ -13409,7 +13409,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C996">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1004">
@@ -13544,7 +13544,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1006">
@@ -13609,7 +13609,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1011">
@@ -13648,7 +13648,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1014">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1022">
@@ -13853,7 +13853,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1029">
@@ -13892,7 +13892,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1032">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1035">
@@ -13957,7 +13957,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1037">
@@ -13996,7 +13996,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1040">
@@ -14692,7 +14692,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1092">
@@ -14762,7 +14762,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1097">
@@ -14840,7 +14840,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1103">
@@ -14905,7 +14905,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1108">
@@ -14918,7 +14918,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1109">
@@ -14957,7 +14957,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1112">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1127">
@@ -15300,7 +15300,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1138">
@@ -15378,7 +15378,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1144">
@@ -15521,7 +15521,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1155">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1156">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1159">
@@ -15586,7 +15586,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1160">
@@ -15599,7 +15599,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1161">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1175">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1176">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1187">
@@ -15976,7 +15976,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1190">
@@ -16002,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1192">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1198">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1201">
@@ -16392,7 +16392,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1222">
@@ -16805,7 +16805,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1253">
@@ -16948,7 +16948,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1264">
@@ -16987,7 +16987,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1267">
@@ -17000,7 +17000,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1268">
@@ -17013,7 +17013,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1269">
@@ -17117,7 +17117,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1277">
@@ -17130,7 +17130,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1278">
@@ -17156,7 +17156,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1280">
@@ -17216,41 +17216,6 @@
       </c>
       <c r="D1284">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
